--- a/measurements.xlsx
+++ b/measurements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\elte-ik-adatbanyaszat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480EC1C9-2F7E-4E5D-A82C-169C94620D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F9ECF7-4195-4154-BBB8-DB7B734FCD06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D0D1A45D-3D4B-402B-9F71-9CCD7AE9A135}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{D0D1A45D-3D4B-402B-9F71-9CCD7AE9A135}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -160,6 +160,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU"/>
+              <a:t>Futási</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="hu-HU" baseline="0"/>
+              <a:t> idők</a:t>
+            </a:r>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -584,7 +614,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -710,6 +740,52 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Futási idők</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -722,13 +798,27 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2727,8 +2817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72EF798-93B0-4922-85BC-C5BF2656E857}">
   <dimension ref="A2:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:D29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/measurements.xlsx
+++ b/measurements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\elte-ik-adatbanyaszat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F9ECF7-4195-4154-BBB8-DB7B734FCD06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43CB58E-69FA-4164-9DAE-E700EE994DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{D0D1A45D-3D4B-402B-9F71-9CCD7AE9A135}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D0D1A45D-3D4B-402B-9F71-9CCD7AE9A135}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -2426,15 +2426,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2817,8 +2817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72EF798-93B0-4922-85BC-C5BF2656E857}">
   <dimension ref="A2:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
